--- a/EC/Train Runs and Enforcements 2016-07-18.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-18.xlsx
@@ -3010,7 +3010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3425,6 +3427,10 @@
       <c r="N11" s="108"/>
       <c r="O11" s="108"/>
       <c r="P11" s="108"/>
+      <c r="S11" s="25">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.99137931034482762</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
